--- a/CASSIA_example/Benchmark/gpt4o.xlsx
+++ b/CASSIA_example/Benchmark/gpt4o.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/xie227_wisc_edu/Documents/dailyimprove/CASSIA/CASSIA_example/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DA82427541F7ACA7EB83F504D16646BE8DE11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E64201DA-E480-4DD9-90AD-9C3CDDC89187}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4DA82427541F7ACA7EB83F504D16646BE8DE11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07A4023D-FF08-48D7-B21B-516F20A4680F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,26 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="391">
   <si>
     <t>dataset</t>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>tissue</t>
-  </si>
-  <si>
-    <t>True.Cell.Type</t>
-  </si>
-  <si>
     <t>Predicted.Main.Cell.Type</t>
   </si>
   <si>
-    <t>Predicted.Sub.Cell.Types</t>
-  </si>
-  <si>
     <t>Possible.Mixed.Cell.Types</t>
   </si>
   <si>
@@ -58,42 +46,6 @@
   </si>
   <si>
     <t>CASSIA_correctness</t>
-  </si>
-  <si>
-    <t>singleR</t>
-  </si>
-  <si>
-    <t>singleR_correctness</t>
-  </si>
-  <si>
-    <t>sccatch</t>
-  </si>
-  <si>
-    <t>sccatch_correctness</t>
-  </si>
-  <si>
-    <t>gptcelltype_4o</t>
-  </si>
-  <si>
-    <t>gptcelltype_4o_correctness</t>
-  </si>
-  <si>
-    <t>sctype</t>
-  </si>
-  <si>
-    <t>sctype_correctness</t>
-  </si>
-  <si>
-    <t>celltypist</t>
-  </si>
-  <si>
-    <t>celltypist_correctness</t>
-  </si>
-  <si>
-    <t>gptcelltype_4</t>
-  </si>
-  <si>
-    <t>gptcelltype_4_correctness</t>
   </si>
   <si>
     <t>Azimuth</t>
@@ -156,16 +108,7 @@
  }</t>
   </si>
   <si>
-    <t>Endothelial_cells</t>
-  </si>
-  <si>
     <t>Endothelial Cell</t>
-  </si>
-  <si>
-    <t>Endothelial cells</t>
-  </si>
-  <si>
-    <t>Fenestrated Glomerular Endothelial Cell</t>
   </si>
   <si>
     <t>B cell</t>
@@ -224,15 +167,6 @@
  }</t>
   </si>
   <si>
-    <t>B_cell</t>
-  </si>
-  <si>
-    <t>B Cell</t>
-  </si>
-  <si>
-    <t>Immune cells</t>
-  </si>
-  <si>
     <t>CD4 T cell</t>
   </si>
   <si>
@@ -292,12 +226,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>T_cells</t>
-  </si>
-  <si>
-    <t>T Cell</t>
   </si>
   <si>
     <t>CD8 T cell</t>
@@ -403,21 +331,6 @@
  }</t>
   </si>
   <si>
-    <t>Epithelial_cells</t>
-  </si>
-  <si>
-    <t>Distal convoluted tubule cells</t>
-  </si>
-  <si>
-    <t>Principal cells (Collecting duct system)</t>
-  </si>
-  <si>
-    <t>Epithelial cells</t>
-  </si>
-  <si>
-    <t>Distal Convoluted Tubule Cell</t>
-  </si>
-  <si>
     <t>Descending vasa recta endothelium</t>
   </si>
   <si>
@@ -475,9 +388,6 @@
  }</t>
   </si>
   <si>
-    <t>Capillary Aerothelial Cell</t>
-  </si>
-  <si>
     <t>Epithelial progenitor cell</t>
   </si>
   <si>
@@ -531,12 +441,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Collecting duct cells</t>
-  </si>
-  <si>
-    <t>Loop of Henle cells</t>
   </si>
   <si>
     <t>Fibroblast</t>
@@ -597,15 +501,6 @@
  }</t>
   </si>
   <si>
-    <t>Tissue_stem_cells</t>
-  </si>
-  <si>
-    <t>StromalÂ cells</t>
-  </si>
-  <si>
-    <t>Extracellular Matrix Cell</t>
-  </si>
-  <si>
     <t>Glomerular endothelium</t>
   </si>
   <si>
@@ -657,9 +552,6 @@
  }</t>
   </si>
   <si>
-    <t>Fenestrated Peritubular Capillary Endothelial Cell</t>
-  </si>
-  <si>
     <t>Intercalated cell</t>
   </si>
   <si>
@@ -719,18 +611,6 @@
  }</t>
   </si>
   <si>
-    <t>B Cell, Epithelial Cell, Mast Cell</t>
-  </si>
-  <si>
-    <t>Intercalated cells</t>
-  </si>
-  <si>
-    <t>Î±-intercalated cells (Collecting duct system)</t>
-  </si>
-  <si>
-    <t>Acid-secretory Parietal Cell</t>
-  </si>
-  <si>
     <t>Mast cell</t>
   </si>
   <si>
@@ -769,21 +649,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Monocyte</t>
-  </si>
-  <si>
-    <t>Mast Cell</t>
-  </si>
-  <si>
-    <t>Mast cells</t>
-  </si>
-  <si>
-    <t>Hematopoietic cells</t>
-  </si>
-  <si>
-    <t>Monocytes</t>
   </si>
   <si>
     <t>MNP-a/classical monocyte derived</t>
@@ -901,9 +766,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>DC</t>
   </si>
   <si>
     <t>Macrophage</t>
@@ -1034,9 +896,6 @@
  }</t>
   </si>
   <si>
-    <t>CMP</t>
-  </si>
-  <si>
     <t>Myofibroblast</t>
   </si>
   <si>
@@ -1089,15 +948,6 @@
  }</t>
   </si>
   <si>
-    <t>Mesangial Cell</t>
-  </si>
-  <si>
-    <t>Pericytes</t>
-  </si>
-  <si>
-    <t>Pericyte</t>
-  </si>
-  <si>
     <t>neutrophils</t>
   </si>
   <si>
@@ -1138,15 +988,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 23
  }</t>
-  </si>
-  <si>
-    <t>NK_cell</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>ILC</t>
   </si>
   <si>
     <t>NK cell</t>
@@ -1209,12 +1050,6 @@
  }</t>
   </si>
   <si>
-    <t>Natural Killer Cell</t>
-  </si>
-  <si>
-    <t>Natural killer cells</t>
-  </si>
-  <si>
     <t>NKT cell</t>
   </si>
   <si>
@@ -1270,12 +1105,6 @@
  }</t>
   </si>
   <si>
-    <t>Helper T Cell</t>
-  </si>
-  <si>
-    <t>Cytotoxic T cells</t>
-  </si>
-  <si>
     <t>Pelvic epithelium</t>
   </si>
   <si>
@@ -1326,12 +1155,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Nephron Epithelial Cell</t>
-  </si>
-  <si>
-    <t>Ductal Cells</t>
   </si>
   <si>
     <t>Peritubular capillary endothelium</t>
@@ -1455,12 +1278,6 @@
  }</t>
   </si>
   <si>
-    <t>Plasmacytoid dendritic cells</t>
-  </si>
-  <si>
-    <t>pDC</t>
-  </si>
-  <si>
     <t>Podocyte</t>
   </si>
   <si>
@@ -1582,12 +1399,6 @@
  }</t>
   </si>
   <si>
-    <t>Principal cells</t>
-  </si>
-  <si>
-    <t>Ureteric Bud</t>
-  </si>
-  <si>
     <t>Proximal tubule</t>
   </si>
   <si>
@@ -1648,15 +1459,6 @@
  }</t>
   </si>
   <si>
-    <t>Hepatocytes</t>
-  </si>
-  <si>
-    <t>Proximal tubule cells</t>
-  </si>
-  <si>
-    <t>Proximal Tubule Cell</t>
-  </si>
-  <si>
     <t>Thick ascending limb of Loop of Henle</t>
   </si>
   <si>
@@ -1713,12 +1515,6 @@
  }</t>
   </si>
   <si>
-    <t>Thick ascending limb cells</t>
-  </si>
-  <si>
-    <t>Distal tubule cells</t>
-  </si>
-  <si>
     <t>Transitional urothelium</t>
   </si>
   <si>
@@ -1776,15 +1572,6 @@
  }</t>
   </si>
   <si>
-    <t>Urothelium Cell</t>
-  </si>
-  <si>
-    <t>Papillary urothelial cells</t>
-  </si>
-  <si>
-    <t>Urothelial Cell</t>
-  </si>
-  <si>
     <t>GTEx</t>
   </si>
   <si>
@@ -1839,12 +1626,6 @@
   </si>
   <si>
     <t>Endothelial cell</t>
-  </si>
-  <si>
-    <t>Lymphatic EC differentiating</t>
-  </si>
-  <si>
-    <t>1. Alveolar Macrophages</t>
   </si>
   <si>
     <t>Endothelial cell (vascular)</t>
@@ -1895,12 +1676,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>EC arterial</t>
-  </si>
-  <si>
-    <t>2. Endothelial Cells</t>
   </si>
   <si>
     <t>Epithelial cell (alveolar type I)</t>
@@ -1957,18 +1732,6 @@
  }</t>
   </si>
   <si>
-    <t>Alveolar Fibroblasts</t>
-  </si>
-  <si>
-    <t>Pulmonary alveolar type I cells</t>
-  </si>
-  <si>
-    <t>AT1</t>
-  </si>
-  <si>
-    <t>3. Fibroblasts</t>
-  </si>
-  <si>
     <t>Epithelial cell (alveolar type II)</t>
   </si>
   <si>
@@ -2018,18 +1781,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Alveolar Type II Cells</t>
-  </si>
-  <si>
-    <t>Pulmonary alveolar type II cells</t>
-  </si>
-  <si>
-    <t>AT2</t>
-  </si>
-  <si>
-    <t>4. Alveolar Type II Cells</t>
   </si>
   <si>
     <t>Epithelial cell (basal)</t>
@@ -2089,18 +1840,6 @@
  }</t>
   </si>
   <si>
-    <t>Basal Cells</t>
-  </si>
-  <si>
-    <t>Basal cells (Airway progenitor cells)</t>
-  </si>
-  <si>
-    <t>Basal resting</t>
-  </si>
-  <si>
-    <t>5. Basal Cells</t>
-  </si>
-  <si>
     <t>Epithelial cell (ciliated)</t>
   </si>
   <si>
@@ -2143,18 +1882,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Ciliated Cells</t>
-  </si>
-  <si>
-    <t>Ciliated cells</t>
-  </si>
-  <si>
-    <t>Multiciliated (non-nasal)</t>
-  </si>
-  <si>
-    <t>6. Ciliated Cells</t>
   </si>
   <si>
     <t>Epithelial cell (club)</t>
@@ -2215,18 +1942,6 @@
  }</t>
   </si>
   <si>
-    <t>Club Cells</t>
-  </si>
-  <si>
-    <t>Clara cells</t>
-  </si>
-  <si>
-    <t>pre-TB secretory</t>
-  </si>
-  <si>
-    <t>7. Club Cells</t>
-  </si>
-  <si>
     <t>Lung Fibroblasts, Myofibroblasts, Adventitial Fibroblasts</t>
   </si>
   <si>
@@ -2276,15 +1991,6 @@
  }</t>
   </si>
   <si>
-    <t>Vascular Smooth Muscle Cells</t>
-  </si>
-  <si>
-    <t>Alveolar fibroblasts</t>
-  </si>
-  <si>
-    <t>8. Mesenchymal Cells</t>
-  </si>
-  <si>
     <t>Immune (B cell)</t>
   </si>
   <si>
@@ -2325,15 +2031,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>B Cells</t>
-  </si>
-  <si>
-    <t>Immune system cells</t>
-  </si>
-  <si>
-    <t>9. Alveolar Macrophages</t>
   </si>
   <si>
     <t>Immune (DC/macrophage)</t>
@@ -2395,15 +2092,6 @@
  }</t>
   </si>
   <si>
-    <t>Plasma Cells</t>
-  </si>
-  <si>
-    <t>Non-classical monocytes</t>
-  </si>
-  <si>
-    <t>10. B cells</t>
-  </si>
-  <si>
     <t>Immune (NK cell)</t>
   </si>
   <si>
@@ -2456,18 +2144,6 @@
  }</t>
   </si>
   <si>
-    <t>Natural Killer Cells</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>NK cells</t>
-  </si>
-  <si>
-    <t>11. Monocytes</t>
-  </si>
-  <si>
     <t>Immune (T cell)</t>
   </si>
   <si>
@@ -2516,15 +2192,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>T Cells</t>
-  </si>
-  <si>
-    <t>CD4 T cells</t>
-  </si>
-  <si>
-    <t>12. Mast Cells</t>
   </si>
   <si>
     <t>Immune (alveolar macrophage)</t>
@@ -2581,12 +2248,6 @@
  }</t>
   </si>
   <si>
-    <t>Alveolar macrophages</t>
-  </si>
-  <si>
-    <t>13. Natural Killer T cells</t>
-  </si>
-  <si>
     <t>Immune (mast cell)</t>
   </si>
   <si>
@@ -2633,12 +2294,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Cancer stem cells</t>
-  </si>
-  <si>
-    <t>14. T cells</t>
   </si>
   <si>
     <t>Pericyte/SMC</t>
@@ -2696,12 +2351,6 @@
  }</t>
   </si>
   <si>
-    <t>Smooth muscle</t>
-  </si>
-  <si>
-    <t>15. Smooth Muscle Cells</t>
-  </si>
-  <si>
     <t>TS</t>
   </si>
   <si>
@@ -2759,9 +2408,6 @@
  }</t>
   </si>
   <si>
-    <t>Memory B</t>
-  </si>
-  <si>
     <t>cd4-positive, alpha-beta t cell</t>
   </si>
   <si>
@@ -2813,12 +2459,6 @@
  }</t>
   </si>
   <si>
-    <t>BEST2+ Goblet cell</t>
-  </si>
-  <si>
-    <t>T Helper Cells</t>
-  </si>
-  <si>
     <t>cd8-positive, alpha-beta t cell</t>
   </si>
   <si>
@@ -2875,9 +2515,6 @@
  }</t>
   </si>
   <si>
-    <t>CD8 Tmem</t>
-  </si>
-  <si>
     <t>enterocyte of epithelium of large intestine</t>
   </si>
   <si>
@@ -2925,15 +2562,6 @@
   "summary": "The analysis of the ranked marker list suggests that the cell cluster is most likely composed of intestinal epithelial cells, with a high probability of being goblet cells. This is supported by the expression of multiple mucins and other epithelial markers that are characteristic of goblet cells in the large intestine. The cell type annotation analysis identified the main cell type as intestinal epithelial cells, with a high probability of being goblet cells. This conclusion was primarily based on the expression of key markers such as MUC17, MUC12, MUC5B, CLDN8, SCNN1B, and CA1, which are characteristic of goblet cells and other epithelial cells in the gastrointestinal tract. Notable sub-cell types considered included goblet cells, enterocytes, and Paneth cells, with goblet cells being the most likely due to the high expression of mucins. The confidence level of the annotation is high, as the validation process confirmed the accuracy of the proposed cell type. There were no significant challenges or uncertainties in the analysis, and no evidence of mixed populations was found. For future research, it may be beneficial to explore additional markers or single-cell technologies to further refine sub-cell type distinctions and enhance the resolution of cell type annotations.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Intestinal epithelial cells</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>Enterocyte</t>
   </si>
   <si>
     <t>fibroblast</t>
@@ -2996,12 +2624,6 @@
  }</t>
   </si>
   <si>
-    <t>Mesothelial cells</t>
-  </si>
-  <si>
-    <t>Stromal 1 (ADAMDEC1+)</t>
-  </si>
-  <si>
     <t>goblet cell</t>
   </si>
   <si>
@@ -3049,12 +2671,6 @@
   "summary": "The analysis of the ranked marker list suggests that the cell cluster is most likely composed of goblet cells, a type of epithelial cell found in the large intestine. These cells are characterized by their role in mucus secretion, which is crucial for protecting the intestinal lining and facilitating the passage of stool. The presence of markers such as ITLN1, CLCA1, FCGBP, and ZG16 strongly supports this annotation. The top subtypes considered were intestinal goblet cells, mucus-secreting goblet cells, and immune-associated goblet cells, with intestinal goblet cells being the most probable.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Leukocytes</t>
-  </si>
-  <si>
-    <t>Unknown (Can't identify a specific cell type from listed markers)</t>
   </si>
   <si>
     <t>gut endothelial cell</t>
@@ -3105,12 +2721,6 @@
   "summary": "The cluster of cells is most likely composed of endothelial cells, as indicated by the high expression of markers such as VWF, KDR, and TEK. These markers are characteristic of cells involved in vascular functions, including angiogenesis and maintaining vascular integrity. The top three probable subtypes are vascular endothelial cells, lymphatic endothelial cells, and HEV endothelial cells, with vascular endothelial cells being the most likely subtype due to the strong presence of angiogenesis-related markers. The annotation passed validation with high confidence, as it aligns with known databases and literature on endothelial markers. No mixed populations were detected, reducing uncertainties in the analysis. Future research could focus on further characterizing subtypes and exploring functional differences within the endothelial cell population to enhance understanding and refine annotations.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Smooth muscle cells</t>
-  </si>
-  <si>
-    <t>arterial capillary</t>
   </si>
   <si>
     <t>immature enterocyte</t>
@@ -3176,12 +2786,6 @@
   "summary": "The cluster of cells is most likely composed of intestinal epithelial cells, with the most probable subtype being enterocytes. This is supported by the expression of metabolic and transport-related markers, as well as epithelial-specific markers. Goblet cells and Paneth cells are also possible subtypes, but less likely based on the current marker list. The confidence level of the annotation is high, as the validation passed without discrepancies. Challenges in the analysis included distinguishing between closely related subtypes, but the marker consistency provided a robust basis for the conclusions. Future research could focus on single-cell resolution to further delineate subtypes and explore functional heterogeneity within the epithelial cell population.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Liver cells</t>
-  </si>
-  <si>
-    <t>Gastric mucous cells</t>
   </si>
   <si>
     <t>intestinal crypt stem cell</t>
@@ -3234,9 +2838,6 @@
   "summary": "The analysis of the ranked marker list, with a focus on key markers such as LGR5 and ASCL2, indicates that the cell cluster is most likely composed of intestinal stem cells. These cells are crucial for the maintenance and regeneration of the intestinal epithelium. The presence of additional markers like TDGF1 supports the identification of these cells as being in a stem or early progenitor state, with the potential for differentiation into various intestinal cell types.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Serum cells</t>
   </si>
   <si>
     <t>intestinal crypt stem cell of large intestine</t>
@@ -3293,12 +2894,6 @@
  }</t>
   </si>
   <si>
-    <t>Pancreatic Islet Cells</t>
-  </si>
-  <si>
-    <t>Colonocyte</t>
-  </si>
-  <si>
     <t>intestinal enteroendocrine cell</t>
   </si>
   <si>
@@ -3348,15 +2943,6 @@
  }</t>
   </si>
   <si>
-    <t>Colonocytes</t>
-  </si>
-  <si>
-    <t>L cells (PYY+)</t>
-  </si>
-  <si>
-    <t>Neurons</t>
-  </si>
-  <si>
     <t>intestinal tuft cell</t>
   </si>
   <si>
@@ -3406,9 +2992,6 @@
   "summary": "The cluster of cells is most likely composed of tuft cells, a specialized type of epithelial cell found in the intestine. These cells are characterized by their chemosensory functions, as indicated by markers such as POU2F3, TRPM5, and TAS1R3. The presence of neurotransmitter-related markers like CHAT and HTR3E/C suggests a role in neuroendocrine signaling, while inflammatory markers like PTGS1 and ALOX5 indicate potential involvement in immune responses. The most probable subtype is intestinal tuft cells, which play a crucial role in sensing luminal contents and modulating immune responses.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Tuft</t>
   </si>
   <si>
     <t>large intestine goblet cell</t>
@@ -3461,12 +3044,6 @@
   "summary": "The analysis of the ranked marker list indicates that the cell cluster is most likely composed of goblet cells, a type of epithelial cell in the large intestine responsible for mucus production. Key markers such as MUC2, ZG16, and TFF3, along with transcription factors like ATOH1, support this annotation. The top three probable subtypes are intestinal goblet cells, secretory precursor cells, and mature goblet cells, with intestinal goblet cells being the most likely subtype. The annotation is validated with high confidence, as the marker expression aligns well with known goblet cell markers, and there is no evidence of mixed populations. Challenges in the analysis were minimal, but future research could focus on exploring the functional diversity within goblet cell subtypes or investigating potential rare cell types that might be present. Overall, the annotation process was robust, and the results are consistent with established knowledge of goblet cell biology.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Goblet cells</t>
-  </si>
-  <si>
-    <t>Goblet cell</t>
   </si>
   <si>
     <t>mast cell</t>
@@ -3568,9 +3145,6 @@
   "summary": "The analysis of the ranked marker list suggests that the cell cluster is most likely composed of intestinal epithelial cells, specifically enterocytes. This conclusion is supported by the presence of key transporters and enzymes involved in nutrient absorption and metabolism, which are characteristic of enterocytes in the intestinal lining.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Enterocytes</t>
   </si>
   <si>
     <t>monocyte</t>
@@ -3683,12 +3257,6 @@
  }</t>
   </si>
   <si>
-    <t>Adult Glia</t>
-  </si>
-  <si>
-    <t>Cardiomyocyte</t>
-  </si>
-  <si>
     <t>neutrophil</t>
   </si>
   <si>
@@ -3745,9 +3313,6 @@
  }</t>
   </si>
   <si>
-    <t>LYVE1+ Macrophage</t>
-  </si>
-  <si>
     <t>paneth cell of epithelium of large intestine</t>
   </si>
   <si>
@@ -3799,9 +3364,6 @@
  }</t>
   </si>
   <si>
-    <t>BEST4+ epithelial</t>
-  </si>
-  <si>
     <t>plasma cell</t>
   </si>
   <si>
@@ -3844,12 +3406,6 @@
   "summary": "The ranked marker list is dominated by immunoglobulin-related genes and specific markers such as TNFRSF17 and MZB1, which are characteristic of plasma cells. These cells are responsible for producing antibodies and are a terminal differentiation stage of B cells. The presence of these markers strongly indicates that the cell cluster is composed of plasma cells, a specialized type of B cell.",
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>IgA plasma cell</t>
-  </si>
-  <si>
-    <t>Activated B cells</t>
   </si>
   <si>
     <t>transit amplifying cell of large intestine</t>
@@ -4018,9 +3574,6 @@
  }</t>
   </si>
   <si>
-    <t>Smooth muscle cell</t>
-  </si>
-  <si>
     <t>Erythroid cell1</t>
   </si>
   <si>
@@ -4070,12 +3623,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 41
  }</t>
-  </si>
-  <si>
-    <t>Erythrocyte</t>
-  </si>
-  <si>
-    <t>Erythrocytes</t>
   </si>
   <si>
     <t>Erythroid cell2</t>
@@ -4259,9 +3806,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Osteoblasts</t>
   </si>
   <si>
     <t>Tissue-Resident Macrophages, Anti-inflammatory Macrophages, Pro-inflammatory Macrophages</t>
@@ -4399,12 +3943,6 @@
  }</t>
   </si>
   <si>
-    <t>Melanocyte</t>
-  </si>
-  <si>
-    <t>Melanocytes</t>
-  </si>
-  <si>
     <t>Melanocyte_S100B high</t>
   </si>
   <si>
@@ -4472,12 +4010,6 @@
  }</t>
   </si>
   <si>
-    <t>Schwann cell</t>
-  </si>
-  <si>
-    <t>Schwann Cells</t>
-  </si>
-  <si>
     <t>Muscle progenitor cell</t>
   </si>
   <si>
@@ -4533,12 +4065,6 @@
  }</t>
   </si>
   <si>
-    <t>Myoblast</t>
-  </si>
-  <si>
-    <t>Myocytes</t>
-  </si>
-  <si>
     <t>neutrophils, monocytes, macrophages</t>
   </si>
   <si>
@@ -4643,12 +4169,6 @@
  }</t>
   </si>
   <si>
-    <t>Mesenchymal stem cell</t>
-  </si>
-  <si>
-    <t>Hair Follicle Cells</t>
-  </si>
-  <si>
     <t>Proliferating cell</t>
   </si>
   <si>
@@ -4695,9 +4215,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>7. Mitotic Cells</t>
   </si>
   <si>
     <t>MCA</t>
@@ -4919,9 +4436,6 @@
  }</t>
   </si>
   <si>
-    <t>Alveolar epithelial type II cell</t>
-  </si>
-  <si>
     <t>Astrocyte</t>
   </si>
   <si>
@@ -4978,12 +4492,6 @@
  }</t>
   </si>
   <si>
-    <t>Astrocytes</t>
-  </si>
-  <si>
-    <t>319 Astro-TE NN</t>
-  </si>
-  <si>
     <t>Germinal Center B Cells, Follicular B Cells, Memory B Cells</t>
   </si>
   <si>
@@ -5084,15 +4592,6 @@
  }</t>
   </si>
   <si>
-    <t>Pre-B cell</t>
-  </si>
-  <si>
-    <t>045 OB-STR-CTX Inh IMN</t>
-  </si>
-  <si>
-    <t>Pro-B cells</t>
-  </si>
-  <si>
     <t>B cell_2</t>
   </si>
   <si>
@@ -5129,12 +4628,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Plasma cell</t>
-  </si>
-  <si>
-    <t>Plasma cells</t>
   </si>
   <si>
     <t>Cardiac muscle cell</t>
@@ -5189,9 +4682,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Cardiomyocytes</t>
   </si>
   <si>
     <t>Cartilage cell</t>
@@ -5434,15 +4924,6 @@
  }</t>
   </si>
   <si>
-    <t>Sperm cell</t>
-  </si>
-  <si>
-    <t>323 Ependymal NN</t>
-  </si>
-  <si>
-    <t>Spermatids</t>
-  </si>
-  <si>
     <t>Cumulus cell</t>
   </si>
   <si>
@@ -5499,12 +4980,6 @@
  }</t>
   </si>
   <si>
-    <t>Granulosa cell</t>
-  </si>
-  <si>
-    <t>Granulosa cells</t>
-  </si>
-  <si>
     <t>Cycling cell</t>
   </si>
   <si>
@@ -5551,9 +5026,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Blood: Undefined</t>
   </si>
   <si>
     <t>Decidual stromal cell</t>
@@ -5603,12 +5075,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Stromal cell</t>
-  </si>
-  <si>
-    <t>Crystallin</t>
   </si>
   <si>
     <t>Dendritic cell</t>
@@ -5662,12 +5128,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Kupffer cells</t>
-  </si>
-  <si>
-    <t>Dendritic cells</t>
   </si>
   <si>
     <t>Dendritic cell_1</t>
@@ -5830,12 +5290,6 @@
  }</t>
   </si>
   <si>
-    <t>Neuroendocrine cell</t>
-  </si>
-  <si>
-    <t>Neuroendocrine cells</t>
-  </si>
-  <si>
     <t>Vascular Endothelial Cells, Lymphatic Endothelial Cells, Blood-Brain Barrier Endothelial Cells</t>
   </si>
   <si>
@@ -5938,9 +5392,6 @@
  }</t>
   </si>
   <si>
-    <t>Microglia</t>
-  </si>
-  <si>
     <t>Endothelial cell_1</t>
   </si>
   <si>
@@ -6204,12 +5655,6 @@
   "possible_mixed_cell_types": [],
   "num_markers": 50
  }</t>
-  </si>
-  <si>
-    <t>Sertoli cell</t>
-  </si>
-  <si>
-    <t>Trophoblasts</t>
   </si>
   <si>
     <t>Epithelial cell_1</t>
@@ -6312,7 +5757,16 @@
  }</t>
   </si>
   <si>
-    <t>Mammary gland cells</t>
+    <t>True Cell Type</t>
+  </si>
+  <si>
+    <t>Predicted Sub Cell Types</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Tissue</t>
   </si>
 </sst>
 </file>
@@ -6380,6 +5834,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6645,103 +6103,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
@@ -6751,66 +6173,30 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2">
         <v>0.5</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -6820,137 +6206,65 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -6960,66 +6274,30 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2">
         <v>0.5</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -7029,66 +6307,30 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
         <v>0.5</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -7098,66 +6340,30 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2">
         <v>0.5</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
@@ -7167,66 +6373,30 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2">
         <v>0.5</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -7236,66 +6406,30 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
@@ -7305,66 +6439,30 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2">
         <v>0.5</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
@@ -7374,66 +6472,30 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
@@ -7443,66 +6505,30 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
@@ -7512,66 +6538,30 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
@@ -7581,66 +6571,30 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
@@ -7650,66 +6604,30 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2">
@@ -7719,66 +6637,30 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
@@ -7788,66 +6670,30 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="K17" s="2">
         <v>0.5</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W17" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
@@ -7857,66 +6703,30 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
@@ -7926,66 +6736,30 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
@@ -7995,69 +6769,33 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="H21" s="2">
         <v>50</v>
@@ -8066,66 +6804,30 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="K21" s="2">
         <v>0.5</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
@@ -8135,69 +6837,33 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="K22" s="2">
         <v>0.5</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2">
         <v>50</v>
@@ -8206,66 +6872,30 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U23" s="2">
-        <v>1</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
@@ -8275,69 +6905,33 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="S24" s="2">
-        <v>1</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="H25" s="2">
         <v>50</v>
@@ -8346,66 +6940,30 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S25" s="2">
-        <v>1</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
@@ -8415,69 +6973,33 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="S26" s="2">
-        <v>1</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="H27" s="2">
         <v>50</v>
@@ -8486,69 +7008,33 @@
         <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="H28" s="2">
         <v>50</v>
@@ -8557,66 +7043,30 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>1</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W28" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
@@ -8626,66 +7076,30 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="U29" s="2">
-        <v>1</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="W29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
@@ -8695,66 +7109,30 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="U30" s="2">
-        <v>1</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="W30" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2">
@@ -8764,66 +7142,30 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S31" s="2">
-        <v>1</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="U31" s="2">
-        <v>1</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="W31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
@@ -8833,66 +7175,30 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>1</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S32" s="2">
-        <v>1</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="U32" s="2">
-        <v>1</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="W32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
@@ -8902,66 +7208,30 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="S33" s="2">
-        <v>1</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="U33" s="2">
-        <v>1</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="W33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2">
@@ -8971,66 +7241,30 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>1</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S34" s="2">
-        <v>1</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="U34" s="2">
-        <v>1</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="W34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2">
@@ -9040,66 +7274,30 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>1</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="S35" s="2">
-        <v>1</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="W35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2">
@@ -9109,66 +7307,30 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S36" s="2">
-        <v>1</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="U36" s="2">
-        <v>1</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="W36" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
@@ -9178,66 +7340,30 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U37" s="2">
-        <v>1</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="W37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2">
@@ -9247,66 +7373,30 @@
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="W38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
@@ -9316,66 +7406,30 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="U39" s="2">
-        <v>1</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="W39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
@@ -9385,66 +7439,30 @@
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="U40" s="2">
-        <v>1</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="W40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -9454,66 +7472,30 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="S41" s="2">
-        <v>1</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="U41" s="2">
-        <v>1</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="W41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2">
@@ -9523,66 +7505,30 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>1</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U42" s="2">
-        <v>1</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="W42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2">
@@ -9592,66 +7538,30 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="K43" s="2">
         <v>1</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>1</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="U43" s="2">
-        <v>1</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="W43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
@@ -9661,66 +7571,30 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>1</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="U44" s="2">
-        <v>1</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
@@ -9730,69 +7604,33 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="H46" s="2">
         <v>50</v>
@@ -9801,66 +7639,30 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W46" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2">
@@ -9870,66 +7672,30 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="K47" s="2">
         <v>0.5</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="W47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
@@ -9939,66 +7705,30 @@
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="W48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>325</v>
+        <v>199</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2">
@@ -10008,66 +7738,30 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="U49" s="2">
-        <v>1</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="W49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>330</v>
+        <v>202</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2">
@@ -10077,69 +7771,33 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="W50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>334</v>
+        <v>204</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>336</v>
+        <v>206</v>
       </c>
       <c r="H51" s="2">
         <v>50</v>
@@ -10148,66 +7806,30 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="W51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>340</v>
+        <v>208</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>341</v>
+        <v>209</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2">
@@ -10217,66 +7839,30 @@
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S52" s="2">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="U52" s="2">
-        <v>1</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="W52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2">
@@ -10286,66 +7872,30 @@
         <v>1</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="K53" s="2">
         <v>0.5</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>350</v>
+        <v>215</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2">
@@ -10355,66 +7905,30 @@
         <v>1</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>352</v>
+        <v>217</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="W54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>356</v>
+        <v>218</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>357</v>
+        <v>219</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2">
@@ -10424,66 +7938,30 @@
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="K55" s="2">
         <v>1</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="U55" s="2">
-        <v>1</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="W55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>362</v>
+        <v>223</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2">
@@ -10493,66 +7971,30 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
       </c>
-      <c r="L56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>1</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="U56" s="2">
-        <v>1</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="W56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2">
@@ -10562,66 +8004,30 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S57" s="2">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="2">
-        <v>1</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2">
@@ -10631,69 +8037,33 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>1</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="W58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>373</v>
+        <v>231</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>374</v>
+        <v>232</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>375</v>
+        <v>233</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>376</v>
+        <v>234</v>
       </c>
       <c r="H59" s="2">
         <v>50</v>
@@ -10702,66 +8072,30 @@
         <v>2</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>380</v>
+        <v>236</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>381</v>
+        <v>237</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2">
@@ -10771,66 +8105,30 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>382</v>
+        <v>238</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>384</v>
+        <v>239</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>385</v>
+        <v>240</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2">
@@ -10840,66 +8138,30 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>386</v>
+        <v>241</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>388</v>
+        <v>242</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>389</v>
+        <v>243</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2">
@@ -10909,66 +8171,30 @@
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>390</v>
+        <v>244</v>
       </c>
       <c r="K62" s="2">
         <v>1</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="U62" s="2">
-        <v>1</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="W62" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>393</v>
+        <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>394</v>
+        <v>246</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2">
@@ -10978,66 +8204,30 @@
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>396</v>
+        <v>248</v>
       </c>
       <c r="K63" s="2">
         <v>1</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="U63" s="2">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="W63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>399</v>
+        <v>251</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>400</v>
+        <v>252</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2">
@@ -11047,62 +8237,30 @@
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="K64" s="2">
         <v>1</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W64" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>402</v>
+        <v>254</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2">
@@ -11112,62 +8270,30 @@
         <v>1</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="K65" s="2">
         <v>1</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>405</v>
+        <v>256</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>406</v>
+        <v>257</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>407</v>
+        <v>258</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2">
@@ -11177,62 +8303,30 @@
         <v>1</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="K66" s="2">
         <v>1</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>1</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="W66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>411</v>
+        <v>260</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>412</v>
+        <v>261</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>413</v>
+        <v>262</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2">
@@ -11242,62 +8336,30 @@
         <v>1</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
       <c r="K67" s="2">
         <v>1</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>1</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="W67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>415</v>
+        <v>264</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2">
@@ -11307,62 +8369,30 @@
         <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
       <c r="K68" s="2">
         <v>1</v>
       </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>1</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>418</v>
+        <v>267</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>419</v>
+        <v>268</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2">
@@ -11372,62 +8402,30 @@
         <v>1</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>420</v>
+        <v>269</v>
       </c>
       <c r="K69" s="2">
         <v>1</v>
       </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>1</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="W69" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>422</v>
+        <v>270</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2">
@@ -11437,62 +8435,30 @@
         <v>1</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>423</v>
+        <v>271</v>
       </c>
       <c r="K70" s="2">
         <v>1</v>
       </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>1</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V70" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="W70" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>425</v>
+        <v>273</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>427</v>
+        <v>275</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2">
@@ -11502,62 +8468,30 @@
         <v>1</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>428</v>
+        <v>276</v>
       </c>
       <c r="K71" s="2">
         <v>1</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>1</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="W71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>431</v>
+        <v>277</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>432</v>
+        <v>278</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>433</v>
+        <v>279</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2">
@@ -11567,62 +8501,30 @@
         <v>1</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>434</v>
+        <v>280</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>438</v>
+        <v>282</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>439</v>
+        <v>283</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2">
@@ -11632,62 +8534,30 @@
         <v>1</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>440</v>
+        <v>284</v>
       </c>
       <c r="K73" s="2">
         <v>1</v>
       </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>1</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="W73" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>443</v>
+        <v>285</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2">
@@ -11697,62 +8567,30 @@
         <v>1</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="K74" s="2">
         <v>1</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>1</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>445</v>
+        <v>287</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2">
@@ -11762,62 +8600,30 @@
         <v>1</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
       <c r="K75" s="2">
         <v>0.5</v>
       </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="W75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>452</v>
+        <v>292</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
@@ -11827,65 +8633,33 @@
         <v>1</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>453</v>
+        <v>293</v>
       </c>
       <c r="K76" s="2">
         <v>1</v>
       </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>1</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="W76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>458</v>
+        <v>297</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>459</v>
+        <v>298</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="H77" s="2">
         <v>50</v>
@@ -11894,66 +8668,30 @@
         <v>2</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>461</v>
+        <v>300</v>
       </c>
       <c r="K77" s="2">
         <v>0</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="W77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>462</v>
+        <v>301</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>463</v>
+        <v>302</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>464</v>
+        <v>303</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="2">
@@ -11963,66 +8701,30 @@
         <v>1</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>465</v>
+        <v>304</v>
       </c>
       <c r="K78" s="2">
         <v>1</v>
       </c>
-      <c r="L78" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="M78" s="2">
-        <v>1</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>1</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="W78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>466</v>
+        <v>305</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>467</v>
+        <v>306</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>468</v>
+        <v>307</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="2">
@@ -12032,66 +8734,30 @@
         <v>1</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="K79" s="2">
         <v>1</v>
       </c>
-      <c r="L79" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M79" s="2">
-        <v>0</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>1</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V79" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="W79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>471</v>
+        <v>309</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>472</v>
+        <v>310</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>473</v>
+        <v>311</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="2">
@@ -12101,66 +8767,30 @@
         <v>1</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>474</v>
+        <v>312</v>
       </c>
       <c r="K80" s="2">
         <v>1</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>1</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="U80" s="2">
-        <v>1</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="W80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>477</v>
+        <v>313</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="2">
@@ -12170,66 +8800,30 @@
         <v>1</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>478</v>
+        <v>314</v>
       </c>
       <c r="K81" s="2">
         <v>1</v>
       </c>
-      <c r="L81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M81" s="2">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>1</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U81" s="2">
-        <v>1</v>
-      </c>
-      <c r="V81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>479</v>
+        <v>315</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>480</v>
+        <v>316</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="2">
@@ -12239,66 +8833,30 @@
         <v>1</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>481</v>
+        <v>317</v>
       </c>
       <c r="K82" s="2">
         <v>1</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M82" s="2">
-        <v>1</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>1</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="U82" s="2">
-        <v>0</v>
-      </c>
-      <c r="V82" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="W82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>485</v>
+        <v>318</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>389</v>
+        <v>243</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="2">
@@ -12308,66 +8866,30 @@
         <v>1</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="K83" s="2">
         <v>1</v>
       </c>
-      <c r="L83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M83" s="2">
-        <v>1</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>1</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U83" s="2">
-        <v>1</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="W83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>489</v>
+        <v>320</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>490</v>
+        <v>321</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>491</v>
+        <v>322</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="2">
@@ -12377,69 +8899,33 @@
         <v>1</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>492</v>
+        <v>323</v>
       </c>
       <c r="K84" s="2">
         <v>1</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="M84" s="2">
-        <v>1</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>1</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V84" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="W84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>494</v>
+        <v>324</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>495</v>
+        <v>325</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>496</v>
+        <v>326</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>497</v>
+        <v>327</v>
       </c>
       <c r="H85" s="2">
         <v>50</v>
@@ -12448,66 +8934,30 @@
         <v>2</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>498</v>
+        <v>328</v>
       </c>
       <c r="K85" s="2">
         <v>0</v>
       </c>
-      <c r="L85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M85" s="2">
-        <v>0</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>1</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="W85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>501</v>
+        <v>331</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="2">
@@ -12517,66 +8967,30 @@
         <v>1</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>502</v>
+        <v>332</v>
       </c>
       <c r="K86" s="2">
         <v>1</v>
       </c>
-      <c r="L86" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M86" s="2">
-        <v>0</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>1</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V86" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="W86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>503</v>
+        <v>333</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>504</v>
+        <v>334</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="2">
@@ -12586,66 +9000,30 @@
         <v>1</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>505</v>
+        <v>335</v>
       </c>
       <c r="K87" s="2">
         <v>1</v>
       </c>
-      <c r="L87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M87" s="2">
-        <v>0</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>1</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V87" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="W87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>506</v>
+        <v>336</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>507</v>
+        <v>337</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>508</v>
+        <v>338</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="2">
@@ -12655,66 +9033,30 @@
         <v>1</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="K88" s="2">
         <v>1</v>
       </c>
-      <c r="L88" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M88" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>0</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="U88" s="2">
-        <v>0</v>
-      </c>
-      <c r="V88" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="W88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>513</v>
+        <v>340</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>514</v>
+        <v>341</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>515</v>
+        <v>342</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="2">
@@ -12724,66 +9066,30 @@
         <v>1</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>516</v>
+        <v>343</v>
       </c>
       <c r="K89" s="2">
         <v>0.5</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M89" s="2">
-        <v>0</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="W89" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>520</v>
+        <v>345</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>521</v>
+        <v>346</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="2">
@@ -12793,66 +9099,30 @@
         <v>1</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>522</v>
+        <v>347</v>
       </c>
       <c r="K90" s="2">
         <v>0</v>
       </c>
-      <c r="L90" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M90" s="2">
-        <v>0</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>0</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="U90" s="2">
-        <v>0</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="W90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>526</v>
+        <v>350</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="2">
@@ -12862,66 +9132,30 @@
         <v>1</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>527</v>
+        <v>351</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V91" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="W91" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>530</v>
+        <v>352</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>424</v>
+        <v>272</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>531</v>
+        <v>353</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="2">
@@ -12931,66 +9165,30 @@
         <v>1</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>532</v>
+        <v>354</v>
       </c>
       <c r="K92" s="2">
         <v>1</v>
       </c>
-      <c r="L92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M92" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q92" s="2">
-        <v>1</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S92" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="U92" s="2">
-        <v>0</v>
-      </c>
-      <c r="V92" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="W92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>535</v>
+        <v>355</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>536</v>
+        <v>356</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>537</v>
+        <v>357</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="2">
@@ -13000,69 +9198,33 @@
         <v>1</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>538</v>
+        <v>358</v>
       </c>
       <c r="K93" s="2">
         <v>1</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M93" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q93" s="2">
-        <v>1</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S93" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T93" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="U93" s="2">
-        <v>0</v>
-      </c>
-      <c r="V93" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="W93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>541</v>
+        <v>361</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>542</v>
+        <v>362</v>
       </c>
       <c r="H94" s="2">
         <v>50</v>
@@ -13071,66 +9233,30 @@
         <v>1</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>543</v>
+        <v>363</v>
       </c>
       <c r="K94" s="2">
         <v>1</v>
       </c>
-      <c r="L94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M94" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>1</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T94" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="U94" s="2">
-        <v>0</v>
-      </c>
-      <c r="V94" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="W94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>544</v>
+        <v>364</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>545</v>
+        <v>365</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>546</v>
+        <v>366</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="2">
@@ -13140,66 +9266,30 @@
         <v>1</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>547</v>
+        <v>367</v>
       </c>
       <c r="K95" s="2">
         <v>1</v>
       </c>
-      <c r="L95" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M95" s="2">
-        <v>0</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>1</v>
-      </c>
-      <c r="R95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="W95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>550</v>
+        <v>368</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="2">
@@ -13209,66 +9299,30 @@
         <v>1</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>551</v>
+        <v>369</v>
       </c>
       <c r="K96" s="2">
         <v>1</v>
       </c>
-      <c r="L96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M96" s="2">
-        <v>1</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>1</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="U96" s="2">
-        <v>0</v>
-      </c>
-      <c r="V96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>552</v>
+        <v>370</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="2">
@@ -13278,66 +9332,30 @@
         <v>1</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>553</v>
+        <v>371</v>
       </c>
       <c r="K97" s="2">
         <v>1</v>
       </c>
-      <c r="L97" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M97" s="2">
-        <v>1</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q97" s="2">
-        <v>0</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="U97" s="2">
-        <v>0</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="W97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>555</v>
+        <v>372</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>556</v>
+        <v>373</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="2">
@@ -13347,69 +9365,33 @@
         <v>1</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>557</v>
+        <v>374</v>
       </c>
       <c r="K98" s="2">
         <v>1</v>
       </c>
-      <c r="L98" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M98" s="2">
-        <v>1</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>1</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>558</v>
+        <v>375</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>559</v>
+        <v>376</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>560</v>
+        <v>377</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>561</v>
+        <v>378</v>
       </c>
       <c r="H99" s="2">
         <v>50</v>
@@ -13418,66 +9400,30 @@
         <v>3</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>562</v>
+        <v>379</v>
       </c>
       <c r="K99" s="2">
         <v>0</v>
       </c>
-      <c r="L99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M99" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q99" s="2">
-        <v>0</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V99" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="W99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>563</v>
+        <v>380</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>564</v>
+        <v>381</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="2">
@@ -13487,69 +9433,33 @@
         <v>1</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>565</v>
+        <v>382</v>
       </c>
       <c r="K100" s="2">
         <v>1</v>
       </c>
-      <c r="L100" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M100" s="2">
-        <v>0</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q100" s="2">
-        <v>0</v>
-      </c>
-      <c r="R100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U100" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V100" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="W100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>455</v>
+        <v>294</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>457</v>
+        <v>296</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>568</v>
+        <v>383</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>569</v>
+        <v>384</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>570</v>
+        <v>385</v>
       </c>
       <c r="H101" s="2">
         <v>50</v>
@@ -13558,45 +9468,9 @@
         <v>2</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>571</v>
+        <v>386</v>
       </c>
       <c r="K101" s="2">
-        <v>1</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M101" s="2">
-        <v>1</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q101" s="2">
-        <v>0</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U101" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V101" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="W101" s="2">
         <v>1</v>
       </c>
     </row>

--- a/CASSIA_example/Benchmark/gpt4o.xlsx
+++ b/CASSIA_example/Benchmark/gpt4o.xlsx
@@ -6105,8 +6105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
